--- a/biology/Botanique/Forêt_de_la_Roche_Turpin/Forêt_de_la_Roche_Turpin.xlsx
+++ b/biology/Botanique/Forêt_de_la_Roche_Turpin/Forêt_de_la_Roche_Turpin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_la_Roche_Turpin</t>
+          <t>Forêt_de_la_Roche_Turpin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de la Roche Turpin se trouve en Essonne dans la région Île-de-France. Elle est située à 25 km au sud-ouest de Paris, dans le Hurepoix. 
-Cette forêt est un ancien lieu d’extraction de grès. Aujourd'hui, c'est un domaine départemental acquis en 1972, équipé en promenades, aire de pique-nique et aire de jeux pour les enfants[1].
+Cette forêt est un ancien lieu d’extraction de grès. Aujourd'hui, c'est un domaine départemental acquis en 1972, équipé en promenades, aire de pique-nique et aire de jeux pour les enfants.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_la_Roche_Turpin</t>
+          <t>Forêt_de_la_Roche_Turpin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,10 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Physique
-La forêt se trouve entre 120 m et 157 m d’altitude. Elle recouvre sur un plateau gréseux recouvert d’argile à meulière et de pentes sableuses. 
-Administrative
-La forêt de la Roche Turpin s'étend sur les communes de Bruyères-le-Châtel, sur 103 ha, et de Fontenay-lès-Briis, sur 20 ha.
+          <t>Physique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt se trouve entre 120 m et 157 m d’altitude. Elle recouvre sur un plateau gréseux recouvert d’argile à meulière et de pentes sableuses. 
 </t>
         </is>
       </c>
@@ -529,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_la_Roche_Turpin</t>
+          <t>Forêt_de_la_Roche_Turpin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +559,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Administrative</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt de la Roche Turpin s'étend sur les communes de Bruyères-le-Châtel, sur 103 ha, et de Fontenay-lès-Briis, sur 20 ha.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Forêt_de_la_Roche_Turpin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_la_Roche_Turpin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt de la Roche Turpin est classée Espace naturel sensible (ENS) et Espace boisé classé.
 </t>
